--- a/results/pvalue_SIDER_all_enzyme_AUROCperdrug.xlsx
+++ b/results/pvalue_SIDER_all_enzyme_AUROCperdrug.xlsx
@@ -498,7 +498,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.001</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -535,7 +535,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.001</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -572,7 +572,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.001</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -609,7 +609,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.001</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -626,22 +626,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>9.361</t>
+          <t>11.139</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>9.224</t>
+          <t>11.023</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>9.365</t>
+          <t>11.211</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>8.806</t>
+          <t>10.535</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -663,27 +663,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>29.462</t>
+          <t>28.911</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>29.1</t>
+          <t>28.544</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>29.097</t>
+          <t>28.539</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>28.676</t>
+          <t>28.108</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>20.901</t>
+          <t>19.698</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
